--- a/src/test/resources/com/Excel/TestData.xlsx
+++ b/src/test/resources/com/Excel/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alluri\eclipse-workspace\BestBuy\src\test\resources\com\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86F9EBF-8039-4EA9-868B-22AA86336BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E483E3-4500-443A-9C64-0F707B5C64A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{337B48CB-5878-4B46-9F48-54DC017E8525}"/>
   </bookViews>
@@ -36,18 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>LG</t>
+    <t>Samsung  TVs</t>
   </si>
   <si>
-    <t>Samsung</t>
-  </si>
-  <si>
-    <t>Sony</t>
-  </si>
-  <si>
-    <t>Brand</t>
+    <t>LG TVs</t>
   </si>
 </sst>
 </file>
@@ -425,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8363DB4D-1EBE-49BC-A1E5-625BEF73AECA}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -442,7 +436,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
@@ -450,16 +444,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
